--- a/rmonize/data_schema/Dataschema_P2_Preliminary.xlsx
+++ b/rmonize/data_schema/Dataschema_P2_Preliminary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C931E2-B976-4F0A-A12D-3B80DD45CBD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB44440-3B04-4FE7-BDA3-EB6AE4E013A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10128" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="206">
   <si>
     <t>index</t>
   </si>
@@ -37,9 +37,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>label:en</t>
-  </si>
-  <si>
     <t>valueType</t>
   </si>
   <si>
@@ -572,12 +569,6 @@
   </si>
   <si>
     <t>intake of any type of RPCs of fruit nature [g/d]</t>
-  </si>
-  <si>
-    <t>RED_MEAT_0701</t>
-  </si>
-  <si>
-    <t>Intake of red meat (mammals meat) [g/d]</t>
   </si>
   <si>
     <t>COFFEE_130301</t>
@@ -1154,22 +1145,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="34.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="34.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1177,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="1"/>
@@ -1193,18 +1184,18 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1"/>
@@ -1217,1400 +1208,1385 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>12</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>13</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>18</v>
       </c>
       <c r="B18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>19</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>20</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>21</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>45</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>22</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>47</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>24</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>25</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>27</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>32</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" s="17"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>36</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>37</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" s="17"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>38</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" s="17"/>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>39</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" s="17"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="17"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>42</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" s="17"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>43</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="17"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>44</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>45</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D40" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="17"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>52</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="17"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>53</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="17"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>54</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="17"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>55</v>
       </c>
       <c r="B45" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="17"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>56</v>
       </c>
       <c r="B46" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="D46" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>57</v>
       </c>
       <c r="B47" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>58</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>59</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>60</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>61</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>63</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D52" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52" s="17"/>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>64</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>66</v>
       </c>
       <c r="B54" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>67</v>
       </c>
       <c r="B55" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>68</v>
       </c>
       <c r="B56" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>115</v>
-      </c>
       <c r="D56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56" s="17"/>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>69</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57" s="17"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>70</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>71</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>72</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D60" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>73</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>74</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>75</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>76</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D64" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>77</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>78</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>79</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>80</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D68" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>81</v>
       </c>
       <c r="B69" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D69" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>82</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>83</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>84</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>85</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>86</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>87</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>88</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>89</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>90</v>
       </c>
       <c r="B78" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>91</v>
       </c>
       <c r="B79" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>92</v>
       </c>
       <c r="B80" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="D80" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>93</v>
       </c>
       <c r="B81" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D81" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>94</v>
       </c>
       <c r="B82" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="27" t="s">
-        <v>166</v>
-      </c>
       <c r="D82" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>95</v>
       </c>
       <c r="B83" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="27" t="s">
-        <v>168</v>
-      </c>
       <c r="D83" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>96</v>
       </c>
       <c r="B84" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C84" s="27" t="s">
-        <v>170</v>
-      </c>
       <c r="D84" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>97</v>
       </c>
       <c r="B85" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="27" t="s">
-        <v>172</v>
-      </c>
       <c r="D85" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>98</v>
       </c>
       <c r="B86" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="27" t="s">
-        <v>174</v>
-      </c>
       <c r="D86" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>99</v>
       </c>
       <c r="B87" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="27" t="s">
-        <v>176</v>
-      </c>
       <c r="D87" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>100</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D88" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88" s="7"/>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>101</v>
       </c>
       <c r="B89" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="D89" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>104</v>
+      </c>
+      <c r="B90" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D89" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>102</v>
-      </c>
-      <c r="B90" s="26" t="s">
+      <c r="C90" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="D90" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>105</v>
+      </c>
+      <c r="B91" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D90" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="19"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>104</v>
-      </c>
-      <c r="B91" s="26" t="s">
+      <c r="C91" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="27" t="s">
-        <v>184</v>
-      </c>
       <c r="D91" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>105</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D92" s="28" t="s">
-        <v>17</v>
-      </c>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E92" s="7"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E93" s="7"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E94" s="7"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E100" s="7"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E101" s="7"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E102" s="7"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E104" s="7"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E105" s="7"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E106" s="7"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E107" s="7"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E116" s="7"/>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="7"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -2649,36 +2625,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A71" activeCellId="3" sqref="A10:XFD16 A35:XFD36 A39:XFD44 A71:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2686,12 +2662,12 @@
       <c r="G2" s="5"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2700,12 +2676,12 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C4" s="11">
         <v>0</v>
@@ -2714,12 +2690,12 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -2728,12 +2704,12 @@
       <c r="G5" s="16"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" s="11">
         <v>2</v>
@@ -2742,12 +2718,12 @@
       <c r="G6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
@@ -2756,12 +2732,12 @@
       <c r="G7" s="16"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C8" s="11">
         <v>4</v>
@@ -2770,24 +2746,24 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C9" s="11">
         <v>5</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C10" s="11">
         <v>0</v>
@@ -2796,12 +2772,12 @@
       <c r="G10" s="16"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -2810,12 +2786,12 @@
       <c r="G11" s="16"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
@@ -2824,12 +2800,12 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" s="11">
         <v>2</v>
@@ -2838,12 +2814,12 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C14" s="11">
         <v>3</v>
@@ -2852,12 +2828,12 @@
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C15" s="11">
         <v>4</v>
@@ -2866,12 +2842,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C16" s="11">
         <v>0</v>
@@ -2880,12 +2856,12 @@
       <c r="G16" s="16"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
@@ -2893,12 +2869,12 @@
       <c r="G17" s="16"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C18" s="11">
         <v>0</v>
@@ -2906,12 +2882,12 @@
       <c r="G18" s="16"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -2919,12 +2895,12 @@
       <c r="G19" s="16"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C20" s="11">
         <v>2</v>
@@ -2932,12 +2908,12 @@
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C21" s="11">
         <v>3</v>
@@ -2945,12 +2921,12 @@
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C22" s="11">
         <v>0</v>
@@ -2958,12 +2934,12 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
@@ -2971,12 +2947,12 @@
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C24" s="11">
         <v>0</v>
@@ -2984,12 +2960,12 @@
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
@@ -2997,12 +2973,12 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C26" s="11">
         <v>0</v>
@@ -3010,12 +2986,12 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
@@ -3023,12 +2999,12 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C28" s="11">
         <v>0</v>
@@ -3036,177 +3012,177 @@
       <c r="G28" s="16"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C29" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C30" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C32" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C33" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C34" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C35" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C36" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C37" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C38" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C39" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C40" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C41" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C42" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C43" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C44" s="11">
         <v>0</v>
@@ -3214,12 +3190,12 @@
       <c r="E44" s="16"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C45" s="11">
         <v>1</v>
@@ -3227,12 +3203,12 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C46" s="11">
         <v>0</v>
@@ -3240,12 +3216,12 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C47" s="11">
         <v>1</v>
@@ -3253,12 +3229,12 @@
       <c r="E47" s="24"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C48" s="11">
         <v>0</v>
@@ -3266,12 +3242,12 @@
       <c r="E48" s="24"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C49" s="11">
         <v>1</v>
@@ -3279,12 +3255,12 @@
       <c r="E49" s="16"/>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C50" s="11">
         <v>0</v>
@@ -3294,12 +3270,12 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C51" s="11">
         <v>1</v>
@@ -3309,12 +3285,12 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C52" s="11">
         <v>0</v>
@@ -3324,12 +3300,12 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C53" s="11">
         <v>1</v>
@@ -3339,12 +3315,12 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C54" s="11">
         <v>0</v>
@@ -3354,12 +3330,12 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C55" s="11">
         <v>1</v>
@@ -3369,12 +3345,12 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C56" s="11">
         <v>0</v>
@@ -3384,12 +3360,12 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C57" s="11">
         <v>1</v>
@@ -3399,12 +3375,12 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C58" s="11">
         <v>0</v>
@@ -3414,12 +3390,12 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C59" s="11">
         <v>1</v>
@@ -3429,12 +3405,12 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C60" s="11">
         <v>0</v>
@@ -3444,12 +3420,12 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C61" s="11">
         <v>1</v>
@@ -3459,12 +3435,12 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C62" s="11">
         <v>0</v>
@@ -3474,12 +3450,12 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C63" s="11">
         <v>1</v>
@@ -3489,12 +3465,12 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C64" s="11">
         <v>0</v>
@@ -3504,12 +3480,12 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C65" s="11">
         <v>1</v>
@@ -3519,12 +3495,12 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C66" s="11">
         <v>0</v>
@@ -3534,12 +3510,12 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C67" s="11">
         <v>1</v>
@@ -3547,12 +3523,12 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C68" s="11">
         <v>0</v>
@@ -3560,12 +3536,12 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C69" s="11">
         <v>1</v>
@@ -3573,67 +3549,67 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
